--- a/validation/table/ValidationTable_Input.xlsx
+++ b/validation/table/ValidationTable_Input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\Quanty-cFOS\validation\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloBeretta\Documents\GitHub\Quanty-cFOS\validation\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A754FE8D-C51D-49E1-BD7D-C52A2D07FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="12300"/>
+    <workbookView xWindow="16950" yWindow="4110" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,11 +411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C3" sqref="C3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,10 +487,10 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -521,10 +522,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -556,10 +557,10 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C5">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>39</v>
@@ -594,7 +595,7 @@
         <v>72</v>
       </c>
       <c r="C6">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>45</v>
@@ -626,10 +627,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>48</v>
@@ -661,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -696,10 +697,10 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -731,10 +732,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -766,10 +767,10 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>28</v>
@@ -801,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -836,10 +837,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -871,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D14">
         <v>70</v>
